--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H2">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I2">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J2">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N2">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O2">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P2">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q2">
-        <v>1170.548797395768</v>
+        <v>1016.535501015271</v>
       </c>
       <c r="R2">
-        <v>4682.195189583071</v>
+        <v>4066.142004061084</v>
       </c>
       <c r="S2">
-        <v>0.1438585070127464</v>
+        <v>0.2940195239815631</v>
       </c>
       <c r="T2">
-        <v>0.09297886274359253</v>
+        <v>0.2436805083012316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H3">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I3">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J3">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>125.450742</v>
       </c>
       <c r="O3">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P3">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q3">
-        <v>188.229680466834</v>
+        <v>176.486341050499</v>
       </c>
       <c r="R3">
-        <v>1129.378082801004</v>
+        <v>1058.918046302994</v>
       </c>
       <c r="S3">
-        <v>0.02313311573826659</v>
+        <v>0.05104635296365905</v>
       </c>
       <c r="T3">
-        <v>0.02242714912441033</v>
+        <v>0.06346007776283857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H4">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I4">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J4">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N4">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O4">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P4">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q4">
-        <v>36.020932540667</v>
+        <v>13.95816939922017</v>
       </c>
       <c r="R4">
-        <v>216.125595244002</v>
+        <v>83.74901639532099</v>
       </c>
       <c r="S4">
-        <v>0.004426912904473458</v>
+        <v>0.004037216917966825</v>
       </c>
       <c r="T4">
-        <v>0.004291814254193593</v>
+        <v>0.005019008894563294</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H5">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I5">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J5">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N5">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O5">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P5">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q5">
-        <v>44.5908486658575</v>
+        <v>79.20749611576198</v>
       </c>
       <c r="R5">
-        <v>178.36339466343</v>
+        <v>316.8299844630479</v>
       </c>
       <c r="S5">
-        <v>0.005480141391604637</v>
+        <v>0.02290972649796123</v>
       </c>
       <c r="T5">
-        <v>0.003541933840731023</v>
+        <v>0.01898735744642405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H6">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I6">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J6">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N6">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O6">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P6">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q6">
-        <v>717.260037417279</v>
+        <v>8.303055734147332</v>
       </c>
       <c r="R6">
-        <v>4303.560224503673</v>
+        <v>49.818334404884</v>
       </c>
       <c r="S6">
-        <v>0.08815006973850187</v>
+        <v>0.002401549667579896</v>
       </c>
       <c r="T6">
-        <v>0.08545994330034372</v>
+        <v>0.002985571344625497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.501281</v>
+        <v>4.2204535</v>
       </c>
       <c r="H7">
-        <v>9.002561999999999</v>
+        <v>8.440906999999999</v>
       </c>
       <c r="I7">
-        <v>0.2697390900140935</v>
+        <v>0.3815978364461761</v>
       </c>
       <c r="J7">
-        <v>0.2132469085866009</v>
+        <v>0.3430629039040183</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N7">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O7">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P7">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q7">
-        <v>38.16441404475399</v>
+        <v>24.83593107967433</v>
       </c>
       <c r="R7">
-        <v>228.986484268524</v>
+        <v>149.015586478046</v>
       </c>
       <c r="S7">
-        <v>0.004690343228500466</v>
+        <v>0.007183466417445914</v>
       </c>
       <c r="T7">
-        <v>0.004547205323329711</v>
+        <v>0.008930380154335326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J8">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N8">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O8">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P8">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q8">
-        <v>542.9036195731679</v>
+        <v>502.8434182920361</v>
       </c>
       <c r="R8">
-        <v>3257.421717439008</v>
+        <v>3017.060509752216</v>
       </c>
       <c r="S8">
-        <v>0.06672195498160477</v>
+        <v>0.145440845239369</v>
       </c>
       <c r="T8">
-        <v>0.06468576266055417</v>
+        <v>0.1808099269178766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J9">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>125.450742</v>
       </c>
       <c r="O9">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P9">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q9">
-        <v>87.30142225928401</v>
+        <v>87.30142225928402</v>
       </c>
       <c r="R9">
-        <v>785.7128003335559</v>
+        <v>785.7128003335561</v>
       </c>
       <c r="S9">
-        <v>0.01072920009336755</v>
+        <v>0.02525078818196878</v>
       </c>
       <c r="T9">
-        <v>0.01560265637379433</v>
+        <v>0.04708711460958331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J10">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N10">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O10">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P10">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q10">
-        <v>16.706603518142</v>
+        <v>6.904602551306001</v>
       </c>
       <c r="R10">
-        <v>150.359431663278</v>
+        <v>62.14142296175401</v>
       </c>
       <c r="S10">
-        <v>0.002053213881147759</v>
+        <v>0.001997065477191219</v>
       </c>
       <c r="T10">
-        <v>0.002985832156234689</v>
+        <v>0.00372408379214455</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J11">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N11">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O11">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P11">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q11">
-        <v>20.68135322029501</v>
+        <v>39.18108916159201</v>
       </c>
       <c r="R11">
-        <v>124.08811932177</v>
+        <v>235.086534969552</v>
       </c>
       <c r="S11">
-        <v>0.002541704031386032</v>
+        <v>0.01133261472212706</v>
       </c>
       <c r="T11">
-        <v>0.00246413738585656</v>
+        <v>0.01408854050816251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J12">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N12">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O12">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P12">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q12">
-        <v>332.6670971388541</v>
+        <v>4.107221954824</v>
       </c>
       <c r="R12">
-        <v>2994.003874249686</v>
+        <v>36.964997593416</v>
       </c>
       <c r="S12">
-        <v>0.04088423484192363</v>
+        <v>0.001187959931392338</v>
       </c>
       <c r="T12">
-        <v>0.05945482065698212</v>
+        <v>0.002215281560240879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1251057013896629</v>
+        <v>0.1887626750859121</v>
       </c>
       <c r="J13">
-        <v>0.1483567179668515</v>
+        <v>0.254551252439285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N13">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O13">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P13">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q13">
-        <v>17.700755893204</v>
+        <v>12.285438598156</v>
       </c>
       <c r="R13">
-        <v>159.306803038836</v>
+        <v>110.568947383404</v>
       </c>
       <c r="S13">
-        <v>0.002175393560233141</v>
+        <v>0.003553401533863681</v>
       </c>
       <c r="T13">
-        <v>0.003163508733429676</v>
+        <v>0.006626305051277116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H14">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I14">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J14">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N14">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O14">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P14">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q14">
-        <v>3.730040796589333</v>
+        <v>24.32317701641</v>
       </c>
       <c r="R14">
-        <v>22.380244779536</v>
+        <v>145.93906209846</v>
       </c>
       <c r="S14">
-        <v>0.0004584158313500455</v>
+        <v>0.007035159048495179</v>
       </c>
       <c r="T14">
-        <v>0.000444426091452581</v>
+        <v>0.008746006607157217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H15">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I15">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J15">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>125.450742</v>
       </c>
       <c r="O15">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P15">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q15">
-        <v>0.5998078754446666</v>
+        <v>4.22288106029</v>
       </c>
       <c r="R15">
-        <v>5.398270879001999</v>
+        <v>38.00592954261</v>
       </c>
       <c r="S15">
-        <v>7.371539370928331E-05</v>
+        <v>0.001221412806475681</v>
       </c>
       <c r="T15">
-        <v>0.0001071986678872638</v>
+        <v>0.002277663746163861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H16">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I16">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J16">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N16">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O16">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P16">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q16">
-        <v>0.1147833804167778</v>
+        <v>0.3339844253183333</v>
       </c>
       <c r="R16">
-        <v>1.033050423751</v>
+        <v>3.005859827865</v>
       </c>
       <c r="S16">
-        <v>1.410668719951775E-05</v>
+        <v>9.660060239044921E-05</v>
       </c>
       <c r="T16">
-        <v>2.051427795467607E-05</v>
+        <v>0.0001801386793685113</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H17">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I17">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J17">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N17">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O17">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P17">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q17">
-        <v>0.1420920554941667</v>
+        <v>1.89523921902</v>
       </c>
       <c r="R17">
-        <v>0.8525523329650001</v>
+        <v>11.37143531412</v>
       </c>
       <c r="S17">
-        <v>1.746287810234014E-05</v>
+        <v>0.0005481730175197084</v>
       </c>
       <c r="T17">
-        <v>1.692995339554414E-05</v>
+        <v>0.0006814806602159458</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H18">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I18">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J18">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N18">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O18">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P18">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q18">
-        <v>2.285602451843</v>
+        <v>0.1986715606066666</v>
       </c>
       <c r="R18">
-        <v>20.570422066587</v>
+        <v>1.78804404546</v>
       </c>
       <c r="S18">
-        <v>0.0002808967529404388</v>
+        <v>5.746313593564193E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004084866974709079</v>
+        <v>0.0001071559924438236</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01434366666666667</v>
+        <v>0.100985</v>
       </c>
       <c r="H19">
-        <v>0.043031</v>
+        <v>0.302955</v>
       </c>
       <c r="I19">
-        <v>0.0008595436708199626</v>
+        <v>0.009130691171817694</v>
       </c>
       <c r="J19">
-        <v>0.001019290700068494</v>
+        <v>0.01231296850590131</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N19">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O19">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P19">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q19">
-        <v>0.1216137436402222</v>
+        <v>0.5942623227766666</v>
       </c>
       <c r="R19">
-        <v>1.094523692762</v>
+        <v>5.348360904989999</v>
       </c>
       <c r="S19">
-        <v>1.494612751833708E-05</v>
+        <v>0.0001718825610010335</v>
       </c>
       <c r="T19">
-        <v>2.173501190752153E-05</v>
+        <v>0.0003205228205519453</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H20">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I20">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J20">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N20">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O20">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P20">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q20">
-        <v>869.7868556203398</v>
+        <v>1048.907232600977</v>
       </c>
       <c r="R20">
-        <v>3479.147422481359</v>
+        <v>4195.628930403908</v>
       </c>
       <c r="S20">
-        <v>0.1068953628821231</v>
+        <v>0.3033826215829574</v>
       </c>
       <c r="T20">
-        <v>0.06908878369259594</v>
+        <v>0.2514405520965711</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H21">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I21">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J21">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>125.450742</v>
       </c>
       <c r="O21">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P21">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q21">
-        <v>139.865764051795</v>
+        <v>182.106576109013</v>
       </c>
       <c r="R21">
-        <v>839.1945843107699</v>
+        <v>1092.639456654078</v>
       </c>
       <c r="S21">
-        <v>0.01718927057415559</v>
+        <v>0.05267193203582955</v>
       </c>
       <c r="T21">
-        <v>0.01666469570585016</v>
+        <v>0.06548097383749105</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H22">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I22">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J22">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N22">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O22">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P22">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q22">
-        <v>26.76567924443917</v>
+        <v>14.40266948088783</v>
       </c>
       <c r="R22">
-        <v>160.594075466635</v>
+        <v>86.41601688532701</v>
       </c>
       <c r="S22">
-        <v>0.00328945761496965</v>
+        <v>0.004165782720431337</v>
       </c>
       <c r="T22">
-        <v>0.003189071342746823</v>
+        <v>0.005178840015659215</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H23">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I23">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J23">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N23">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O23">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P23">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q23">
-        <v>33.13363281975625</v>
+        <v>81.72987118409399</v>
       </c>
       <c r="R23">
-        <v>132.534531279025</v>
+        <v>326.919484736376</v>
       </c>
       <c r="S23">
-        <v>0.004072068554479132</v>
+        <v>0.02363929031167284</v>
       </c>
       <c r="T23">
-        <v>0.002631865929040036</v>
+        <v>0.01959201280589119</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H24">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I24">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J24">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N24">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O24">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P24">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q24">
-        <v>532.9665486780825</v>
+        <v>8.567467839084667</v>
       </c>
       <c r="R24">
-        <v>3197.799292068495</v>
+        <v>51.404807034508</v>
       </c>
       <c r="S24">
-        <v>0.06550070543931552</v>
+        <v>0.002478027391329821</v>
       </c>
       <c r="T24">
-        <v>0.06350178269378592</v>
+        <v>0.003080647329774727</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.3447175</v>
+        <v>4.3548545</v>
       </c>
       <c r="H25">
-        <v>6.689435</v>
+        <v>8.709709</v>
       </c>
       <c r="I25">
-        <v>0.2004320669614302</v>
+        <v>0.393749879068184</v>
       </c>
       <c r="J25">
-        <v>0.1584550413472308</v>
+        <v>0.3539877955886688</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N25">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O25">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P25">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q25">
-        <v>28.35841253472833</v>
+        <v>25.62683517873366</v>
       </c>
       <c r="R25">
-        <v>170.15047520837</v>
+        <v>153.761011072402</v>
       </c>
       <c r="S25">
-        <v>0.003485201896387274</v>
+        <v>0.00741222502596302</v>
       </c>
       <c r="T25">
-        <v>0.003378841983211899</v>
+        <v>0.009214769503281553</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H26">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I26">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J26">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N26">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O26">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P26">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q26">
-        <v>1648.965298370282</v>
+        <v>14.51964125716267</v>
       </c>
       <c r="R26">
-        <v>9893.791790221694</v>
+        <v>87.11784754297601</v>
       </c>
       <c r="S26">
-        <v>0.2026551020061169</v>
+        <v>0.004199615268281615</v>
       </c>
       <c r="T26">
-        <v>0.196470559562174</v>
+        <v>0.005220900143226449</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H27">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I27">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J27">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>125.450742</v>
       </c>
       <c r="O27">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P27">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q27">
-        <v>265.1612746975413</v>
+        <v>2.520835087690667</v>
       </c>
       <c r="R27">
-        <v>2386.451472277872</v>
+        <v>22.687515789216</v>
       </c>
       <c r="S27">
-        <v>0.03258788115493471</v>
+        <v>0.0007291183945652456</v>
       </c>
       <c r="T27">
-        <v>0.04739006703070123</v>
+        <v>0.001359643950970415</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H28">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I28">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J28">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N28">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O28">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P28">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q28">
-        <v>50.74309409965955</v>
+        <v>0.1993709143271111</v>
       </c>
       <c r="R28">
-        <v>456.687846896936</v>
+        <v>1.794338228944</v>
       </c>
       <c r="S28">
-        <v>0.006236242158058639</v>
+        <v>5.766541480123439E-05</v>
       </c>
       <c r="T28">
-        <v>0.009068890747606381</v>
+        <v>0.0001075331976248504</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H29">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I29">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J29">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N29">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O29">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P29">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q29">
-        <v>62.81563164087333</v>
+        <v>1.131356875712</v>
       </c>
       <c r="R29">
-        <v>376.89378984524</v>
+        <v>6.788141254272</v>
       </c>
       <c r="S29">
-        <v>0.007719937011616416</v>
+        <v>0.0003272300964579039</v>
       </c>
       <c r="T29">
-        <v>0.007484343248418361</v>
+        <v>0.0004068076593511689</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H30">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I30">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J30">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N30">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O30">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P30">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q30">
-        <v>1010.412307663048</v>
+        <v>0.1185963406862222</v>
       </c>
       <c r="R30">
-        <v>9093.710768967432</v>
+        <v>1.067367066176</v>
       </c>
       <c r="S30">
-        <v>0.1241779978511774</v>
+        <v>3.430243173966092E-05</v>
       </c>
       <c r="T30">
-        <v>0.1805825795769617</v>
+        <v>6.396642049637937E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>6.341005333333332</v>
+        <v>0.06028266666666667</v>
       </c>
       <c r="H31">
-        <v>19.023016</v>
+        <v>0.180848</v>
       </c>
       <c r="I31">
-        <v>0.3799844996097436</v>
+        <v>0.005450536340515544</v>
       </c>
       <c r="J31">
-        <v>0.4506049893345302</v>
+        <v>0.007350186424898878</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N31">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O31">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P31">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q31">
-        <v>53.76264067969243</v>
+        <v>0.3547429570382222</v>
       </c>
       <c r="R31">
-        <v>483.8637661172319</v>
+        <v>3.192686613344</v>
       </c>
       <c r="S31">
-        <v>0.006607339427839615</v>
+        <v>0.0001026047346698847</v>
       </c>
       <c r="T31">
-        <v>0.009608549168668459</v>
+        <v>0.0001913350532296156</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H32">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I32">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J32">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>260.047928</v>
+        <v>240.859306</v>
       </c>
       <c r="N32">
-        <v>520.0958559999999</v>
+        <v>481.718612</v>
       </c>
       <c r="O32">
-        <v>0.5333246545957802</v>
+        <v>0.770495783518506</v>
       </c>
       <c r="P32">
-        <v>0.4360150557860642</v>
+        <v>0.7103085338816119</v>
       </c>
       <c r="Q32">
-        <v>103.6247651758667</v>
+        <v>56.76323235858467</v>
       </c>
       <c r="R32">
-        <v>621.7485910552</v>
+        <v>340.579394151508</v>
       </c>
       <c r="S32">
-        <v>0.01273531188183895</v>
+        <v>0.01641801839783971</v>
       </c>
       <c r="T32">
-        <v>0.01234666103569492</v>
+        <v>0.0204106398155489</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H33">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I33">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J33">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>125.450742</v>
       </c>
       <c r="O33">
-        <v>0.08576108022407103</v>
+        <v>0.133770027207319</v>
       </c>
       <c r="P33">
-        <v>0.1051698675167548</v>
+        <v>0.1849808797181794</v>
       </c>
       <c r="Q33">
-        <v>16.66334328043333</v>
+        <v>9.854978183408667</v>
       </c>
       <c r="R33">
-        <v>149.9700895239</v>
+        <v>88.694803650678</v>
       </c>
       <c r="S33">
-        <v>0.002047897269637302</v>
+        <v>0.002850422824820731</v>
       </c>
       <c r="T33">
-        <v>0.002978100614111442</v>
+        <v>0.005315405811132232</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H34">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I34">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J34">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.002373666666667</v>
+        <v>3.307267666666667</v>
       </c>
       <c r="N34">
-        <v>24.007121</v>
+        <v>9.921803000000001</v>
       </c>
       <c r="O34">
-        <v>0.01641183302072443</v>
+        <v>0.01057976888853842</v>
       </c>
       <c r="P34">
-        <v>0.0201260326943997</v>
+        <v>0.01462999594956937</v>
       </c>
       <c r="Q34">
-        <v>3.188812533272223</v>
+        <v>0.7794226685807778</v>
       </c>
       <c r="R34">
-        <v>28.69931279945001</v>
+        <v>7.014804017227</v>
       </c>
       <c r="S34">
-        <v>0.0003918997748754037</v>
+        <v>0.0002254377557573538</v>
       </c>
       <c r="T34">
-        <v>0.0005699099156635336</v>
+        <v>0.0004203913702089479</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H35">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I35">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J35">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.906257500000001</v>
+        <v>18.767532</v>
       </c>
       <c r="N35">
-        <v>19.812515</v>
+        <v>37.535064</v>
       </c>
       <c r="O35">
-        <v>0.02031645243304672</v>
+        <v>0.06003631129389966</v>
       </c>
       <c r="P35">
-        <v>0.01660954367032533</v>
+        <v>0.05534657705729765</v>
       </c>
       <c r="Q35">
-        <v>3.947478509458334</v>
+        <v>4.422938010596</v>
       </c>
       <c r="R35">
-        <v>23.68487105675</v>
+        <v>26.537628063576</v>
       </c>
       <c r="S35">
-        <v>0.0004851385658581608</v>
+        <v>0.00127927664816092</v>
       </c>
       <c r="T35">
-        <v>0.0004703333128838104</v>
+        <v>0.001590377977252779</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H36">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I36">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J36">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.345759</v>
+        <v>1.967337333333333</v>
       </c>
       <c r="N36">
-        <v>478.037277</v>
+        <v>5.902012</v>
       </c>
       <c r="O36">
-        <v>0.3267975351065956</v>
+        <v>0.006293404831498911</v>
       </c>
       <c r="P36">
-        <v>0.4007558368220747</v>
+        <v>0.008702693618721296</v>
       </c>
       <c r="Q36">
-        <v>63.49662919885001</v>
+        <v>0.4636417335675556</v>
       </c>
       <c r="R36">
-        <v>571.4696627896501</v>
+        <v>4.172775602108</v>
       </c>
       <c r="S36">
-        <v>0.007803630482736809</v>
+        <v>0.0001341022735215536</v>
       </c>
       <c r="T36">
-        <v>0.01134822389653034</v>
+        <v>0.0002500709711399887</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3984833333333334</v>
+        <v>0.2356696666666667</v>
       </c>
       <c r="H37">
-        <v>1.19545</v>
+        <v>0.707009</v>
       </c>
       <c r="I37">
-        <v>0.02387909835424983</v>
+        <v>0.02130838188739468</v>
       </c>
       <c r="J37">
-        <v>0.02831705206471804</v>
+        <v>0.02873489313722756</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.478567333333332</v>
+        <v>5.884659333333333</v>
       </c>
       <c r="N37">
-        <v>25.435702</v>
+        <v>17.653978</v>
       </c>
       <c r="O37">
-        <v>0.01738844461978203</v>
+        <v>0.01882470426023795</v>
       </c>
       <c r="P37">
-        <v>0.02132366351038126</v>
+        <v>0.02603131977462027</v>
       </c>
       <c r="Q37">
-        <v>3.378567772877778</v>
+        <v>1.386835703533555</v>
       </c>
       <c r="R37">
-        <v>30.4071099559</v>
+        <v>12.481521331802</v>
       </c>
       <c r="S37">
-        <v>0.0004152203793032015</v>
+        <v>0.0004011239872944158</v>
       </c>
       <c r="T37">
-        <v>0.0006038232898339943</v>
+        <v>0.0007480071919447122</v>
       </c>
     </row>
   </sheetData>
